--- a/input/data/anuario_dt.xlsx
+++ b/input/data/anuario_dt.xlsx
@@ -8,25 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD6932-82F0-4F72-96E9-1AAC05858F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B71EF-0C09-4F67-AD07-5CA6B5FF8DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48000" yWindow="-2790" windowWidth="19200" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2910" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="total_sind" sheetId="1" r:id="rId1"/>
-    <sheet name="ft" sheetId="2" r:id="rId2"/>
+    <sheet name="resumen" sheetId="6" r:id="rId1"/>
+    <sheet name="total_sind_original" sheetId="1" r:id="rId2"/>
+    <sheet name="ft_original" sheetId="2" r:id="rId3"/>
+    <sheet name="resumen armonizacion" sheetId="3" r:id="rId4"/>
+    <sheet name="rev2-rev3" sheetId="4" r:id="rId5"/>
+    <sheet name="rev2-rev4" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="69">
   <si>
     <t>ano</t>
   </si>
@@ -185,6 +200,54 @@
   </si>
   <si>
     <t>ocupados</t>
+  </si>
+  <si>
+    <t>actividad2</t>
+  </si>
+  <si>
+    <t>actividad3</t>
+  </si>
+  <si>
+    <t>actividad4</t>
+  </si>
+  <si>
+    <t>síntesis</t>
+  </si>
+  <si>
+    <t>4. Suministro de electricidad, gas y agua</t>
+  </si>
+  <si>
+    <t>5. Construcción</t>
+  </si>
+  <si>
+    <t>6. Comercio, hoteles y restaurantes</t>
+  </si>
+  <si>
+    <t>9. Servicios</t>
+  </si>
+  <si>
+    <t>9. Servicios (sociales, comunitarios y doméstico), administración pública y defensa, y organizaciones extraterritoriales</t>
+  </si>
+  <si>
+    <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+  </si>
+  <si>
+    <t>sintesis</t>
+  </si>
+  <si>
+    <t>rev4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Servicios (sociales, comunitarios, domésticos y profesionales), administración pública y defensa, y organizaciones extraterritoriales + otras </t>
+  </si>
+  <si>
+    <t>sintesis2</t>
+  </si>
+  <si>
+    <t>tasa</t>
+  </si>
+  <si>
+    <t>tasa*100</t>
   </si>
 </sst>
 </file>
@@ -200,12 +263,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -220,9 +319,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,11 +609,972 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3D3E74-DA76-428E-BF0F-B95B8B22455A}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2006</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>64216</v>
+      </c>
+      <c r="D2" s="9">
+        <v>823600</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E41" si="0">C2/D2</f>
+        <v>7.7969888295288975E-2</v>
+      </c>
+      <c r="F2">
+        <f>ROUND(E2*100,3)</f>
+        <v>7.7969999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2006</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>44608</v>
+      </c>
+      <c r="D3" s="9">
+        <v>87030</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.5125588877398598</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F41" si="1">ROUND(E3*100,3)</f>
+        <v>51.256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>112709</v>
+      </c>
+      <c r="D4" s="9">
+        <v>837990</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.13449921836776096</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>8591</v>
+      </c>
+      <c r="D5" s="9">
+        <v>38330</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.22413253326376206</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>22.413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>60158</v>
+      </c>
+      <c r="D6" s="9">
+        <v>529510</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.11361069668183793</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>11.361000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>126935</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1266370</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.10023531827191105</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>10.023999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>110131</v>
+      </c>
+      <c r="D8" s="9">
+        <v>519410</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.212030958202576</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>21.202999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>35992</v>
+      </c>
+      <c r="D9" s="9">
+        <v>551570</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6.5253730260891638E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>6.5250000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>140366</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1757160</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>7.9882310091283659E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>7.9880000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>703706</v>
+      </c>
+      <c r="D11" s="9">
+        <f>SUM(D2:D10)</f>
+        <v>6410970</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.10976591685813535</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>10.977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>69713</v>
+      </c>
+      <c r="D12" s="1">
+        <f>SUM(ft_original!C12,ft_original!C13)</f>
+        <v>729163</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>9.5606880766028995E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>9.5609999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>44236</v>
+      </c>
+      <c r="D13" s="8">
+        <f>5376+197865</f>
+        <v>203241</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.21765293420126844</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>21.765000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>114515</v>
+      </c>
+      <c r="D14" s="9">
+        <f>162466+648007</f>
+        <v>810473</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.14129403447122854</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>14.129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2010</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <v>10445</v>
+      </c>
+      <c r="D15" s="9">
+        <f>64548+157</f>
+        <v>64705</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.16142492852175258</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>16.141999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2010</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>66685</v>
+      </c>
+      <c r="D16" s="9">
+        <f>147156+411579</f>
+        <v>558735</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.11934996017790186</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>11.935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17">
+        <v>191577</v>
+      </c>
+      <c r="D17" s="1">
+        <f>SUM(ft_original!C18,ft_original!C19)</f>
+        <v>1660728</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.11535724092084917</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>11.536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2010</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>136391</v>
+      </c>
+      <c r="D18" s="9">
+        <f>128892+386001</f>
+        <v>514893</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.26489192900272485</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>26.489000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2010</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>37225</v>
+      </c>
+      <c r="D19">
+        <f>SUM(ft_original!C21,ft_original!C22)</f>
+        <v>556744</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>6.6861968876180081E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>6.6859999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <v>187786</v>
+      </c>
+      <c r="D20">
+        <f>SUM(ft_original!C23:C29)</f>
+        <v>1252780</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.14989543255799104</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2010</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>858571</v>
+      </c>
+      <c r="D21" s="9">
+        <f>SUM(D12:D20)</f>
+        <v>6351462</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.13517690887546835</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>13.518000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2014</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <f>total_sind_original!C22+total_sind_original!C23</f>
+        <v>64097</v>
+      </c>
+      <c r="D22" s="1">
+        <f>SUM(ft_original!C31,ft_original!C32)</f>
+        <v>676394</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>9.4762815755314214E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>9.4760000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2014</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>54320</v>
+      </c>
+      <c r="D23" s="8">
+        <f>3833+228456</f>
+        <v>232289</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.23384663070571574</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>23.385000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2014</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>122676</v>
+      </c>
+      <c r="D24" s="8">
+        <f>194078+645399</f>
+        <v>839477</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.14613384285692163</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>14.613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2014</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>12623</v>
+      </c>
+      <c r="D25" s="8">
+        <f>107+72137</f>
+        <v>72244</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.17472731299485078</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>17.472999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2014</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26">
+        <v>55820</v>
+      </c>
+      <c r="D26" s="9">
+        <f>148649+476938</f>
+        <v>625587</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>8.9228196877492658E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>8.923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2014</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27">
+        <f>total_sind_original!C28+total_sind_original!C29</f>
+        <v>247130</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUM(ft_original!C37,ft_original!C38)</f>
+        <v>1784245</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.13850676336489665</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>13.851000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2014</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>144830</v>
+      </c>
+      <c r="D28" s="8">
+        <f>138953+418045</f>
+        <v>556998</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.26001888696189213</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>26.001999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2014</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <f>total_sind_original!C31+total_sind_original!C32</f>
+        <v>91955</v>
+      </c>
+      <c r="D29" s="1">
+        <f>SUM(ft_original!C40,ft_original!C41)</f>
+        <v>664983</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.13828173051040402</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>13.827999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2014</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <f>SUM(total_sind_original!C33:C39)</f>
+        <v>192319</v>
+      </c>
+      <c r="D30" s="1">
+        <f>SUM(ft_original!C42:C48)</f>
+        <v>1424679</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.13499111027817495</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>13.499000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2014</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>985770</v>
+      </c>
+      <c r="D31" s="9">
+        <f>SUM(D22:D30)</f>
+        <v>6876896</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.14334519527414694</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>14.335000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2018</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>68028</v>
+      </c>
+      <c r="D32" s="8">
+        <f>181101+497291</f>
+        <v>678392</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.10027830516869303</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>10.028</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2018</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>62898</v>
+      </c>
+      <c r="D33" s="8">
+        <f>2406+190652</f>
+        <v>193058</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.32579846471008711</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>32.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>128895</v>
+      </c>
+      <c r="D34" s="8">
+        <f>177096+645164</f>
+        <v>822260</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.15675698684114514</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>15.676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2018</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <f>SUM(total_sind_original!C44:C45)</f>
+        <v>19644</v>
+      </c>
+      <c r="D35" s="1">
+        <f>SUM(ft_original!C53,ft_original!C54)</f>
+        <v>92099</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.21329221815654892</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>21.329000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2018</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36">
+        <v>54656</v>
+      </c>
+      <c r="D36" s="8">
+        <f>190659+516575</f>
+        <v>707234</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>7.7281352423667418E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>7.7279999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2018</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37">
+        <f>SUM(total_sind_original!C47,total_sind_original!C49)</f>
+        <v>258423</v>
+      </c>
+      <c r="D37" s="1">
+        <f>SUM(ft_original!C56,ft_original!C58)</f>
+        <v>1920496</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.13456055102431871</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>13.456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2018</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <f>SUM(total_sind_original!C48,total_sind_original!C50)</f>
+        <v>152820</v>
+      </c>
+      <c r="D38" s="1">
+        <f>SUM(ft_original!C57,ft_original!C59)</f>
+        <v>723963</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.21108813571964313</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>21.109000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2018</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <f>SUM(total_sind_original!C51:C52)</f>
+        <v>57970</v>
+      </c>
+      <c r="D39" s="1">
+        <f>SUM(ft_original!C60,ft_original!C61)</f>
+        <v>233272</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.24850817929284269</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>24.850999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <f>SUM(total_sind_original!C53:C62)</f>
+        <v>371012</v>
+      </c>
+      <c r="D40" s="1">
+        <f>SUM(ft_original!C62:C71)</f>
+        <v>1963412</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.18896288705579878</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>18.896000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2018</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <f>SUM(C32:C40)</f>
+        <v>1174346</v>
+      </c>
+      <c r="D41" s="9">
+        <f>SUM(D32:D40)</f>
+        <v>7334186</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.16011947338123139</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>16.012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="B2:D11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B22:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1248,751 +2316,1573 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B257917-6808-451E-86B4-62016725B2F4}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="9"/>
+    <col min="2" max="2" width="84.6328125" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="10.90625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
+        <v>899180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9">
+        <v>96070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>812880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>25370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>517180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1234530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9">
+        <v>509590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9">
+        <v>553110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1660140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9">
+        <v>6308410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <f>510392+179494</f>
+        <v>689886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8">
+        <f>14180+25097</f>
+        <v>39277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
+        <f>5376+197865</f>
+        <v>203241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9">
+        <f>162466+648007</f>
+        <v>810473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9">
+        <f>64548+157</f>
+        <v>64705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9">
+        <f>147156+411579</f>
+        <v>558735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9">
+        <f>499538+929453</f>
+        <v>1428991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9">
+        <f>26240+205497</f>
+        <v>231737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="9">
+        <f>128892+386001</f>
+        <v>514893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="9">
+        <f>2535+120119</f>
+        <v>122654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="9">
+        <f>101838+332252</f>
+        <v>434090</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9">
+        <f>425+68404</f>
+        <v>68829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9">
+        <f>16204+305338</f>
+        <v>321542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="9">
+        <f>11799+147943</f>
+        <v>159742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="9">
+        <f>99685+124684</f>
+        <v>224369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9">
+        <f>90338+42806+273504+68693</f>
+        <v>475341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="9">
+        <f>2957</f>
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C12:C28)</f>
+        <v>6351462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="8">
+        <f>178162+451687</f>
+        <v>629849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="8">
+        <f>20327+26218</f>
+        <v>46545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="8">
+        <f>3833+228456</f>
+        <v>232289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="8">
+        <f>194078+645399</f>
+        <v>839477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="8">
+        <f>107+72137</f>
+        <v>72244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="9">
+        <f>148649+476938</f>
+        <v>625587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="8">
+        <f>517689+994171</f>
+        <v>1511860</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="8">
+        <f>44235+228150</f>
+        <v>272385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="8">
+        <f>138953+418045</f>
+        <v>556998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="8">
+        <f>7237+164179</f>
+        <v>171416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="8">
+        <f>119205+374362</f>
+        <v>493567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="8">
+        <f>899+71512</f>
+        <v>72411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="8">
+        <f>17416+409150</f>
+        <v>426566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="8">
+        <f>31277+171269</f>
+        <v>202546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="8">
+        <f>89552+156984</f>
+        <v>246536</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="8">
+        <f>82327+71928+264584+56747</f>
+        <v>475586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="8">
+        <f>SUM(C31:C48)</f>
+        <v>6876896</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="8">
+        <f>181101+497291</f>
+        <v>678392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="8">
+        <f>2406+190652</f>
+        <v>193058</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="8">
+        <f>177096+645164</f>
+        <v>822260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="8">
+        <f>39+46983</f>
+        <v>47022</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="8">
+        <f>6401+38676</f>
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="8">
+        <f>190659+516575</f>
+        <v>707234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="9">
+        <f>519894+1009914</f>
+        <v>1529808</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="8">
+        <f>159825+396417</f>
+        <v>556242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="8">
+        <f>87692+302996</f>
+        <v>390688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="8">
+        <f>15966+151755</f>
+        <v>167721</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="8">
+        <f>4469+150141</f>
+        <v>154610</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="8">
+        <f>11573+67089</f>
+        <v>78662</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="8">
+        <f>92207+147255</f>
+        <v>239462</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="8">
+        <f>94317+124299</f>
+        <v>218616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="8">
+        <f>51646</f>
+        <v>51646</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="8">
+        <f>29866+422716</f>
+        <v>452582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="8">
+        <f>65951+206704</f>
+        <v>272655</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="8">
+        <f>41340+68145</f>
+        <v>109485</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="8">
+        <f>124750+134945</f>
+        <v>259695</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="9">
+        <f>921+35892+249772+71575</f>
+        <v>358160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="9">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="8">
+        <f>SUM(C50:C71)</f>
+        <v>7334186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A846C0-0940-4A3E-826F-F1C873FF6CE4}">
+  <dimension ref="A1:F1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1048576" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1048576" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D43F386-BF4D-47CA-ACE1-62A7E655867E}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2006</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>899180</v>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2006</v>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751EFC91-7EA8-440D-AE39-AA8E6590F664}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>96070</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2006</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>812880</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2006</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>25370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2006</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>517180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2006</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>1234530</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2006</v>
-      </c>
-      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>509590</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>553110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>1660140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>6308410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2010</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>827480</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2010</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>106340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2010</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>813970</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2010</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>37420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2010</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>565060</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2010</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>1376920</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2010</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>534330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2010</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>646280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2010</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>1844900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2010</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>6752680</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2014</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1">
-        <v>736320</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2014</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1">
-        <v>253270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2014</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1">
-        <v>941750</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2014</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="1">
-        <v>35790</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2014</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="1">
-        <v>38520</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>2014</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27">
-        <v>689650</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>2014</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="1">
-        <v>1614830</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>2014</v>
-      </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="1">
-        <v>500030</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>2014</v>
-      </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="1">
-        <v>319990</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>2014</v>
-      </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="1">
-        <v>181160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>2014</v>
-      </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="1">
-        <v>186430</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>2014</v>
-      </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="1">
-        <v>71860</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>2014</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="1">
-        <v>269810</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>2014</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="1">
-        <v>209110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>2014</v>
-      </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1">
-        <v>443530</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>2014</v>
-      </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="1">
-        <v>624090</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>2014</v>
-      </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="1">
-        <v>406100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>2014</v>
-      </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="1">
-        <v>94480</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>2014</v>
-      </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="1">
-        <v>212500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>2014</v>
-      </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="1">
-        <v>369430</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>2014</v>
-      </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="1">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>2014</v>
-      </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>2014</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1">
-        <v>8202890</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>2018</v>
-      </c>
-      <c r="B45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="1">
-        <v>789470</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2018</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="1">
-        <v>218780</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>2018</v>
-      </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="1">
-        <v>937820</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>2018</v>
-      </c>
-      <c r="B48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="1">
-        <v>41470</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>2018</v>
-      </c>
-      <c r="B49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="1">
-        <v>47380</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>2018</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="1">
-        <v>727270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>2018</v>
-      </c>
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51">
-        <v>1653600</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>2018</v>
-      </c>
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="1">
-        <v>579230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>2018</v>
-      </c>
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="1">
-        <v>434920</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>2018</v>
-      </c>
-      <c r="B54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="1">
-        <v>173160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>2018</v>
-      </c>
-      <c r="B55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="1">
-        <v>167090</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>2018</v>
-      </c>
-      <c r="B56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="1">
-        <v>89200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>2018</v>
-      </c>
-      <c r="B57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="1">
-        <v>275850</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>2018</v>
-      </c>
-      <c r="B58" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="1">
-        <v>222760</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>2018</v>
-      </c>
-      <c r="B59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="1">
-        <v>477530</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>2018</v>
-      </c>
-      <c r="B60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="1">
-        <v>722390</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>2018</v>
-      </c>
-      <c r="B61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="1">
-        <v>474210</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>2018</v>
-      </c>
-      <c r="B62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="1">
-        <v>104830</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>2018</v>
-      </c>
-      <c r="B63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="1">
-        <v>281420</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>2018</v>
-      </c>
-      <c r="B64" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="1">
-        <v>365110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>2018</v>
-      </c>
-      <c r="B65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65">
-        <v>3590</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>2018</v>
-      </c>
-      <c r="B66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>2018</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67">
-        <v>8787080</v>
       </c>
     </row>
   </sheetData>

--- a/input/data/anuario_dt.xlsx
+++ b/input/data/anuario_dt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B71EF-0C09-4F67-AD07-5CA6B5FF8DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DCAB1D-92C6-4BEF-866C-59AFB3E0F43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2910" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="70">
   <si>
     <t>ano</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>tasa*100</t>
+  </si>
+  <si>
+    <t>9. Servicios sociales, domésticos, profesionales y otros</t>
   </si>
 </sst>
 </file>
@@ -319,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -328,8 +331,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,13 +613,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3D3E74-DA76-428E-BF0F-B95B8B22455A}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="2" max="2" width="132.54296875" customWidth="1"/>
     <col min="3" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -653,7 +654,7 @@
       <c r="C2">
         <v>64216</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2">
         <v>823600</v>
       </c>
       <c r="E2">
@@ -675,7 +676,7 @@
       <c r="C3">
         <v>44608</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3">
         <v>87030</v>
       </c>
       <c r="E3">
@@ -697,7 +698,7 @@
       <c r="C4">
         <v>112709</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>837990</v>
       </c>
       <c r="E4">
@@ -719,7 +720,7 @@
       <c r="C5">
         <v>8591</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>38330</v>
       </c>
       <c r="E5">
@@ -741,7 +742,7 @@
       <c r="C6">
         <v>60158</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>529510</v>
       </c>
       <c r="E6">
@@ -763,7 +764,7 @@
       <c r="C7">
         <v>126935</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>1266370</v>
       </c>
       <c r="E7">
@@ -785,7 +786,7 @@
       <c r="C8">
         <v>110131</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>519410</v>
       </c>
       <c r="E8">
@@ -807,7 +808,7 @@
       <c r="C9">
         <v>35992</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>551570</v>
       </c>
       <c r="E9">
@@ -824,12 +825,12 @@
         <v>2006</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>140366</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>1757160</v>
       </c>
       <c r="E10">
@@ -851,7 +852,7 @@
       <c r="C11">
         <v>703706</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <f>SUM(D2:D10)</f>
         <v>6410970</v>
       </c>
@@ -897,7 +898,7 @@
       <c r="C13">
         <v>44236</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="1">
         <f>5376+197865</f>
         <v>203241</v>
       </c>
@@ -920,7 +921,7 @@
       <c r="C14">
         <v>114515</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <f>162466+648007</f>
         <v>810473</v>
       </c>
@@ -943,7 +944,7 @@
       <c r="C15">
         <v>10445</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <f>64548+157</f>
         <v>64705</v>
       </c>
@@ -966,7 +967,7 @@
       <c r="C16">
         <v>66685</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16">
         <f>147156+411579</f>
         <v>558735</v>
       </c>
@@ -1012,7 +1013,7 @@
       <c r="C18">
         <v>136391</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18">
         <f>128892+386001</f>
         <v>514893</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>2010</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>187786</v>
@@ -1081,7 +1082,7 @@
       <c r="C21">
         <v>858571</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21">
         <f>SUM(D12:D20)</f>
         <v>6351462</v>
       </c>
@@ -1128,7 +1129,7 @@
       <c r="C23">
         <v>54320</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="1">
         <f>3833+228456</f>
         <v>232289</v>
       </c>
@@ -1151,7 +1152,7 @@
       <c r="C24">
         <v>122676</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="1">
         <f>194078+645399</f>
         <v>839477</v>
       </c>
@@ -1174,7 +1175,7 @@
       <c r="C25">
         <v>12623</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="1">
         <f>107+72137</f>
         <v>72244</v>
       </c>
@@ -1197,7 +1198,7 @@
       <c r="C26">
         <v>55820</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <f>148649+476938</f>
         <v>625587</v>
       </c>
@@ -1244,7 +1245,7 @@
       <c r="C28">
         <v>144830</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="1">
         <f>138953+418045</f>
         <v>556998</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C30">
         <f>SUM(total_sind_original!C33:C39)</f>
@@ -1315,7 +1316,7 @@
       <c r="C31">
         <v>985770</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31">
         <f>SUM(D22:D30)</f>
         <v>6876896</v>
       </c>
@@ -1338,7 +1339,7 @@
       <c r="C32">
         <v>68028</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="1">
         <f>181101+497291</f>
         <v>678392</v>
       </c>
@@ -1361,7 +1362,7 @@
       <c r="C33">
         <v>62898</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="1">
         <f>2406+190652</f>
         <v>193058</v>
       </c>
@@ -1384,7 +1385,7 @@
       <c r="C34">
         <v>128895</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="1">
         <f>177096+645164</f>
         <v>822260</v>
       </c>
@@ -1431,7 +1432,7 @@
       <c r="C36">
         <v>54656</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="1">
         <f>190659+516575</f>
         <v>707234</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C40">
         <f>SUM(total_sind_original!C53:C62)</f>
@@ -1551,7 +1552,7 @@
         <f>SUM(C32:C40)</f>
         <v>1174346</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41">
         <f>SUM(D32:D40)</f>
         <v>7334186</v>
       </c>
@@ -2326,855 +2327,853 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="9"/>
-    <col min="2" max="2" width="84.6328125" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="10.90625" style="9"/>
+    <col min="2" max="2" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+      <c r="A2">
         <v>2006</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2">
         <v>899180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="A3">
         <v>2006</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3">
         <v>96070</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="A4">
         <v>2006</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>812880</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5">
         <v>2006</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>25370</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="A6">
         <v>2006</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>517180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="A7">
         <v>2006</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>1234530</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>509590</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+      <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>553110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="A10">
         <v>2006</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>1660140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+      <c r="A11">
         <v>2006</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>6308410</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="1">
         <f>510392+179494</f>
         <v>689886</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="1">
         <f>14180+25097</f>
         <v>39277</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="A14">
         <v>2010</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="1">
         <f>5376+197865</f>
         <v>203241</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="A15">
         <v>2010</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15">
         <f>162466+648007</f>
         <v>810473</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="A16">
         <v>2010</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16">
         <f>64548+157</f>
         <v>64705</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="A17">
         <v>2010</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17">
         <f>147156+411579</f>
         <v>558735</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+      <c r="A18">
         <v>2010</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18">
         <f>499538+929453</f>
         <v>1428991</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="A19">
         <v>2010</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19">
         <f>26240+205497</f>
         <v>231737</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="A20">
         <v>2010</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20">
         <f>128892+386001</f>
         <v>514893</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+      <c r="A21">
         <v>2010</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21">
         <f>2535+120119</f>
         <v>122654</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+      <c r="A22">
         <v>2010</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22">
         <f>101838+332252</f>
         <v>434090</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+      <c r="A23">
         <v>2010</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23">
         <f>425+68404</f>
         <v>68829</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+      <c r="A24">
         <v>2010</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24">
         <f>16204+305338</f>
         <v>321542</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+      <c r="A25">
         <v>2010</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25">
         <f>11799+147943</f>
         <v>159742</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+      <c r="A26">
         <v>2010</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26">
         <f>99685+124684</f>
         <v>224369</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+      <c r="A27">
         <v>2010</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27">
         <f>90338+42806+273504+68693</f>
         <v>475341</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
+      <c r="A28">
         <v>2010</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28">
         <f>2957</f>
         <v>2957</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+      <c r="A29">
         <v>2010</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
+      <c r="A30">
         <v>2010</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="1">
         <f>SUM(C12:C28)</f>
         <v>6351462</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31">
+        <v>2014</v>
+      </c>
+      <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="1">
         <f>178162+451687</f>
         <v>629849</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32">
+        <v>2014</v>
+      </c>
+      <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="1">
         <f>20327+26218</f>
         <v>46545</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33">
+        <v>2014</v>
+      </c>
+      <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="1">
         <f>3833+228456</f>
         <v>232289</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34">
+        <v>2014</v>
+      </c>
+      <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="1">
         <f>194078+645399</f>
         <v>839477</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35">
+        <v>2014</v>
+      </c>
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1">
         <f>107+72137</f>
         <v>72244</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36">
         <f>148649+476938</f>
         <v>625587</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37">
+        <v>2014</v>
+      </c>
+      <c r="B37" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="1">
         <f>517689+994171</f>
         <v>1511860</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38">
+        <v>2014</v>
+      </c>
+      <c r="B38" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="1">
         <f>44235+228150</f>
         <v>272385</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="A39">
+        <v>2014</v>
+      </c>
+      <c r="B39" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="1">
         <f>138953+418045</f>
         <v>556998</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="1">
         <f>7237+164179</f>
         <v>171416</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="A41">
+        <v>2014</v>
+      </c>
+      <c r="B41" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="1">
         <f>119205+374362</f>
         <v>493567</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42">
+        <v>2014</v>
+      </c>
+      <c r="B42" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="1">
         <f>899+71512</f>
         <v>72411</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="1">
         <f>17416+409150</f>
         <v>426566</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="A44">
+        <v>2014</v>
+      </c>
+      <c r="B44" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="1">
         <f>31277+171269</f>
         <v>202546</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45">
+        <v>2014</v>
+      </c>
+      <c r="B45" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="1">
         <f>89552+156984</f>
         <v>246536</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="A46">
+        <v>2014</v>
+      </c>
+      <c r="B46" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="1">
         <f>82327+71928+264584+56747</f>
         <v>475586</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="A47">
+        <v>2014</v>
+      </c>
+      <c r="B47" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="1">
         <v>1034</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="A48">
+        <v>2014</v>
+      </c>
+      <c r="B48" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49">
+        <v>2014</v>
+      </c>
+      <c r="B49" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="1">
         <f>SUM(C31:C48)</f>
         <v>6876896</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50">
+        <v>2018</v>
+      </c>
+      <c r="B50" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="1">
         <f>181101+497291</f>
         <v>678392</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51">
+        <v>2018</v>
+      </c>
+      <c r="B51" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="1">
         <f>2406+190652</f>
         <v>193058</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="A52">
+        <v>2018</v>
+      </c>
+      <c r="B52" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="1">
         <f>177096+645164</f>
         <v>822260</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="A53">
+        <v>2018</v>
+      </c>
+      <c r="B53" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="1">
         <f>39+46983</f>
         <v>47022</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="A54">
+        <v>2018</v>
+      </c>
+      <c r="B54" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="1">
         <f>6401+38676</f>
         <v>45077</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="A55">
+        <v>2018</v>
+      </c>
+      <c r="B55" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="1">
         <f>190659+516575</f>
         <v>707234</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56">
+        <v>2018</v>
+      </c>
+      <c r="B56" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56">
         <f>519894+1009914</f>
         <v>1529808</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="A57">
+        <v>2018</v>
+      </c>
+      <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="1">
         <f>159825+396417</f>
         <v>556242</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="A58">
+        <v>2018</v>
+      </c>
+      <c r="B58" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="1">
         <f>87692+302996</f>
         <v>390688</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="A59">
+        <v>2018</v>
+      </c>
+      <c r="B59" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="1">
         <f>15966+151755</f>
         <v>167721</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="A60">
+        <v>2018</v>
+      </c>
+      <c r="B60" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="1">
         <f>4469+150141</f>
         <v>154610</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="A61">
+        <v>2018</v>
+      </c>
+      <c r="B61" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="1">
         <f>11573+67089</f>
         <v>78662</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="A62">
+        <v>2018</v>
+      </c>
+      <c r="B62" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="1">
         <f>92207+147255</f>
         <v>239462</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="A63">
+        <v>2018</v>
+      </c>
+      <c r="B63" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="1">
         <f>94317+124299</f>
         <v>218616</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="A64">
+        <v>2018</v>
+      </c>
+      <c r="B64" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="1">
         <f>51646</f>
         <v>51646</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65">
+        <v>2018</v>
+      </c>
+      <c r="B65" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="1">
         <f>29866+422716</f>
         <v>452582</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="A66">
+        <v>2018</v>
+      </c>
+      <c r="B66" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="1">
         <f>65951+206704</f>
         <v>272655</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="A67">
+        <v>2018</v>
+      </c>
+      <c r="B67" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="1">
         <f>41340+68145</f>
         <v>109485</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="A68">
+        <v>2018</v>
+      </c>
+      <c r="B68" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="1">
         <f>124750+134945</f>
         <v>259695</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="A69">
+        <v>2018</v>
+      </c>
+      <c r="B69" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69">
         <f>921+35892+249772+71575</f>
         <v>358160</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B70" s="9" t="s">
+      <c r="A70">
+        <v>2018</v>
+      </c>
+      <c r="B70" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70">
         <v>1111</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="A71">
+        <v>2018</v>
+      </c>
+      <c r="B71" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="A72">
+        <v>2018</v>
+      </c>
+      <c r="B72" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="1">
         <f>SUM(C50:C71)</f>
         <v>7334186</v>
       </c>
@@ -3188,11 +3187,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A846C0-0940-4A3E-826F-F1C873FF6CE4}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="49.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -3379,7 +3381,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -3427,7 +3429,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
@@ -3441,13 +3443,13 @@
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -3455,13 +3457,13 @@
         <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -3469,13 +3471,13 @@
         <v>27</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.35">
@@ -3483,13 +3485,13 @@
         <v>28</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.35">
@@ -3497,13 +3499,13 @@
         <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.35">
@@ -3511,13 +3513,13 @@
         <v>30</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.35">
@@ -3525,7 +3527,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
@@ -3533,7 +3535,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
@@ -3541,7 +3543,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.35">
@@ -3549,7 +3551,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1048576" spans="4:4" x14ac:dyDescent="0.35">
